--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65074.00650583655</v>
+        <v>12795984.97205839</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65074.00650583655</v>
+        <v>12795984.97205839</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226119.4181233922</v>
+        <v>26195620.74952654</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226119.4181233922</v>
+        <v>26195620.74952654</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1414780982.758366</v>
+        <v>27972805.70652208</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17496.57399433113</v>
+        <v>741417.9808124797</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33607.47500120715</v>
+        <v>1262169.989081472</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49441.16905604806</v>
+        <v>1782921.997350465</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65186.19670969985</v>
+        <v>2303534.970755292</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80931.54605679965</v>
+        <v>2824182.043665608</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96676.89540389946</v>
+        <v>3344829.116575925</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112483.8188032077</v>
+        <v>4062156.455305197</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127994.1599075107</v>
+        <v>4720493.834819101</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>143470.1666149102</v>
+        <v>5167627.624863748</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>159248.4137727955</v>
+        <v>5691759.856963438</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>174993.6540226849</v>
+        <v>6211818.898633756</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>190738.8942725743</v>
+        <v>6731877.940304068</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>206484.134522464</v>
+        <v>7251936.981974376</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>222700.2501947456</v>
+        <v>7660682.740369857</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238793.9896634959</v>
+        <v>7911424.833363357</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>288</v>
